--- a/artfynd/A 68504-2020.xlsx
+++ b/artfynd/A 68504-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>72428369</v>
+        <v>72565373</v>
       </c>
       <c r="B2" t="n">
-        <v>78570</v>
+        <v>89410</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Portfjällbäcken NV, Jmt</t>
+          <t>Portfjällbäcken norr, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>436626.1252275193</v>
+        <v>437367.1633408847</v>
       </c>
       <c r="R2" t="n">
-        <v>7164728.082573086</v>
+        <v>7164503.95756077</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-07-26</t>
+          <t>2018-07-25</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-07-26</t>
+          <t>2018-07-25</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,12 +780,12 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Johan Råghall, Beatrice Svensson Lindius, Bo Karlsson, Ingela Källén, Jenny Schlaug</t>
+          <t>Jon Andersson, Helena Björnström</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
@@ -796,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>72428363</v>
+        <v>72428369</v>
       </c>
       <c r="B3" t="n">
         <v>78570</v>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>436638.0382137428</v>
+        <v>436626.1252275193</v>
       </c>
       <c r="R3" t="n">
-        <v>7164866.12804943</v>
+        <v>7164728.082573086</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72428400</v>
+        <v>72428363</v>
       </c>
       <c r="B4" t="n">
-        <v>73686</v>
+        <v>78570</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>308</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>436744.8979682749</v>
+        <v>436638.0382137428</v>
       </c>
       <c r="R4" t="n">
-        <v>7164567.116949905</v>
+        <v>7164866.12804943</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>72428322</v>
+        <v>72428400</v>
       </c>
       <c r="B5" t="n">
-        <v>77668</v>
+        <v>73686</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1249</v>
+        <v>308</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>436725.9521279522</v>
+        <v>436744.8979682749</v>
       </c>
       <c r="R5" t="n">
-        <v>7165225.890241673</v>
+        <v>7164567.116949905</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>72428362</v>
+        <v>72428322</v>
       </c>
       <c r="B6" t="n">
-        <v>78596</v>
+        <v>77668</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,25 +1156,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>1249</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>436638.0382137428</v>
+        <v>436725.9521279522</v>
       </c>
       <c r="R6" t="n">
-        <v>7164866.12804943</v>
+        <v>7165225.890241673</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>72428361</v>
+        <v>72428362</v>
       </c>
       <c r="B7" t="n">
-        <v>78570</v>
+        <v>78596</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,25 +1272,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>436783.8270764243</v>
+        <v>436638.0382137428</v>
       </c>
       <c r="R7" t="n">
-        <v>7164577.902749494</v>
+        <v>7164866.12804943</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>72428372</v>
+        <v>72428361</v>
       </c>
       <c r="B8" t="n">
-        <v>103250</v>
+        <v>78570</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,25 +1388,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221725</v>
+        <v>2081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>436953.0765182538</v>
+        <v>436783.8270764243</v>
       </c>
       <c r="R8" t="n">
-        <v>7164568.798347034</v>
+        <v>7164577.902749494</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>72428332</v>
+        <v>72428372</v>
       </c>
       <c r="B9" t="n">
-        <v>96660</v>
+        <v>103250</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,21 +1508,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>219880</v>
+        <v>221725</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>436893.1162935084</v>
+        <v>436953.0765182538</v>
       </c>
       <c r="R9" t="n">
-        <v>7164622.015485426</v>
+        <v>7164568.798347034</v>
       </c>
       <c r="S9" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>72428360</v>
+        <v>72428332</v>
       </c>
       <c r="B10" t="n">
-        <v>78596</v>
+        <v>96660</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,21 +1624,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6462</v>
+        <v>219880</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>436783.8270764243</v>
+        <v>436893.1162935084</v>
       </c>
       <c r="R10" t="n">
-        <v>7164577.902749494</v>
+        <v>7164622.015485426</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>72428386</v>
+        <v>72428360</v>
       </c>
       <c r="B11" t="n">
-        <v>89410</v>
+        <v>78596</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,25 +1736,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>436756.9341256364</v>
+        <v>436783.8270764243</v>
       </c>
       <c r="R11" t="n">
-        <v>7164566.866109884</v>
+        <v>7164577.902749494</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>72428377</v>
+        <v>72428386</v>
       </c>
       <c r="B12" t="n">
-        <v>78569</v>
+        <v>89410</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1856,21 +1856,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>436719.0582220339</v>
+        <v>436756.9341256364</v>
       </c>
       <c r="R12" t="n">
-        <v>7165122.111599406</v>
+        <v>7164566.866109884</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>72428394</v>
+        <v>72428377</v>
       </c>
       <c r="B13" t="n">
-        <v>81236</v>
+        <v>78569</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1972,21 +1972,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>436773.1705243318</v>
+        <v>436719.0582220339</v>
       </c>
       <c r="R13" t="n">
-        <v>7164561.803121682</v>
+        <v>7165122.111599406</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>72428321</v>
+        <v>72428394</v>
       </c>
       <c r="B14" t="n">
-        <v>78596</v>
+        <v>81236</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2084,25 +2084,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6462</v>
+        <v>1312</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>436637.1544416961</v>
+        <v>436773.1705243318</v>
       </c>
       <c r="R14" t="n">
-        <v>7164556.049444994</v>
+        <v>7164561.803121682</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>72428324</v>
+        <v>72428321</v>
       </c>
       <c r="B15" t="n">
-        <v>78570</v>
+        <v>78596</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2200,25 +2200,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2228,10 +2228,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>436864.1296041927</v>
+        <v>436637.1544416961</v>
       </c>
       <c r="R15" t="n">
-        <v>7164592.982160524</v>
+        <v>7164556.049444994</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2274,11 +2274,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På sten.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2309,10 +2304,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>72428387</v>
+        <v>72428324</v>
       </c>
       <c r="B16" t="n">
-        <v>77506</v>
+        <v>78570</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2325,21 +2320,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2349,10 +2344,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>436677.9860664092</v>
+        <v>436864.1296041927</v>
       </c>
       <c r="R16" t="n">
-        <v>7165028.91988291</v>
+        <v>7164592.982160524</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2395,6 +2390,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>På sten.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2425,10 +2425,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>72428358</v>
+        <v>72428387</v>
       </c>
       <c r="B17" t="n">
-        <v>78570</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2441,21 +2441,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2465,10 +2465,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>436720.0431215578</v>
+        <v>436677.9860664092</v>
       </c>
       <c r="R17" t="n">
-        <v>7165128.103196093</v>
+        <v>7165028.91988291</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2541,10 +2541,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>72428354</v>
+        <v>72428358</v>
       </c>
       <c r="B18" t="n">
-        <v>73693</v>
+        <v>78570</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2557,21 +2557,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2581,10 +2581,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>436672.9528315956</v>
+        <v>436720.0431215578</v>
       </c>
       <c r="R18" t="n">
-        <v>7164931.967170446</v>
+        <v>7165128.103196093</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>72428320</v>
+        <v>72428354</v>
       </c>
       <c r="B19" t="n">
-        <v>78570</v>
+        <v>73693</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2673,21 +2673,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>436637.1544416961</v>
+        <v>436672.9528315956</v>
       </c>
       <c r="R19" t="n">
-        <v>7164556.049444994</v>
+        <v>7164931.967170446</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>72428399</v>
+        <v>72428320</v>
       </c>
       <c r="B20" t="n">
-        <v>73686</v>
+        <v>78570</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2789,21 +2789,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>308</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2813,10 +2813,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>436920.853154643</v>
+        <v>436637.1544416961</v>
       </c>
       <c r="R20" t="n">
-        <v>7164590.943620242</v>
+        <v>7164556.049444994</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>72428365</v>
+        <v>72428399</v>
       </c>
       <c r="B21" t="n">
-        <v>78570</v>
+        <v>73686</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2905,21 +2905,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2081</v>
+        <v>308</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>437055.1424984471</v>
+        <v>436920.853154643</v>
       </c>
       <c r="R21" t="n">
-        <v>7164637.978396592</v>
+        <v>7164590.943620242</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>72428368</v>
+        <v>72428365</v>
       </c>
       <c r="B22" t="n">
-        <v>78596</v>
+        <v>78570</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3017,25 +3017,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>436626.1252275193</v>
+        <v>437055.1424984471</v>
       </c>
       <c r="R22" t="n">
-        <v>7164728.082573086</v>
+        <v>7164637.978396592</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3121,10 +3121,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>72428370</v>
+        <v>72428368</v>
       </c>
       <c r="B23" t="n">
-        <v>93056</v>
+        <v>78596</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3137,21 +3137,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2813</v>
+        <v>6462</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>437021.7966157374</v>
+        <v>436626.1252275193</v>
       </c>
       <c r="R23" t="n">
-        <v>7164606.027647984</v>
+        <v>7164728.082573086</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3237,10 +3237,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>72428367</v>
+        <v>72428370</v>
       </c>
       <c r="B24" t="n">
-        <v>78570</v>
+        <v>93056</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3249,25 +3249,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2081</v>
+        <v>2813</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3277,10 +3277,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>436635.8469210393</v>
+        <v>437021.7966157374</v>
       </c>
       <c r="R24" t="n">
-        <v>7164555.217705115</v>
+        <v>7164606.027647984</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>72428376</v>
+        <v>72428367</v>
       </c>
       <c r="B25" t="n">
         <v>78570</v>
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>436719.0582220339</v>
+        <v>436635.8469210393</v>
       </c>
       <c r="R25" t="n">
-        <v>7165122.111599406</v>
+        <v>7164555.217705115</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3439,11 +3439,6 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>På sten.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3474,10 +3469,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>72428309</v>
+        <v>72428376</v>
       </c>
       <c r="B26" t="n">
-        <v>96336</v>
+        <v>78570</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3486,25 +3481,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219811</v>
+        <v>2081</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Brudsporre</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Gymnadenia conopsea</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3514,13 +3509,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>437080.9132383047</v>
+        <v>436719.0582220339</v>
       </c>
       <c r="R26" t="n">
-        <v>7164657.201154213</v>
+        <v>7165122.111599406</v>
       </c>
       <c r="S26" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3560,6 +3555,11 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>På sten.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3590,10 +3590,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>72428393</v>
+        <v>72428309</v>
       </c>
       <c r="B27" t="n">
-        <v>81236</v>
+        <v>96336</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3602,25 +3602,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1312</v>
+        <v>219811</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Brudsporre</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Gymnadenia conopsea</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3630,13 +3630,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>437038.1199521506</v>
+        <v>437080.9132383047</v>
       </c>
       <c r="R27" t="n">
-        <v>7164625.875838296</v>
+        <v>7164657.201154213</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>72428452</v>
+        <v>72428393</v>
       </c>
       <c r="B28" t="n">
-        <v>93145</v>
+        <v>81236</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3718,41 +3718,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2667</v>
+        <v>1312</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Portfjällbäcken NV, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>436637.1704971373</v>
+        <v>437038.1199521506</v>
       </c>
       <c r="R28" t="n">
-        <v>7164906.946061547</v>
+        <v>7164625.875838296</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3803,7 +3800,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3815,7 +3811,7 @@
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Johan Råghall, Ingela Källén</t>
+          <t>Johan Råghall, Beatrice Svensson Lindius, Bo Karlsson, Ingela Källén, Jenny Schlaug</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">
@@ -3826,10 +3822,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>72428311</v>
+        <v>72428452</v>
       </c>
       <c r="B29" t="n">
-        <v>96356</v>
+        <v>93145</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3842,37 +3838,40 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>219847</v>
+        <v>2667</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Portfjällbäcken NV, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>437080.9132383047</v>
+        <v>436637.1704971373</v>
       </c>
       <c r="R29" t="n">
-        <v>7164657.201154213</v>
+        <v>7164906.946061547</v>
       </c>
       <c r="S29" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3920,6 +3919,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Johan Råghall, Beatrice Svensson Lindius, Bo Karlsson, Ingela Källén, Jenny Schlaug</t>
+          <t>Johan Råghall, Ingela Källén</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr">
@@ -3942,10 +3942,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>72428353</v>
+        <v>72428311</v>
       </c>
       <c r="B30" t="n">
-        <v>73693</v>
+        <v>96356</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3954,25 +3954,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6440</v>
+        <v>219847</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3982,13 +3982,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>436768.9613388443</v>
+        <v>437080.9132383047</v>
       </c>
       <c r="R30" t="n">
-        <v>7164566.185987116</v>
+        <v>7164657.201154213</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4058,10 +4058,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>72428385</v>
+        <v>72428353</v>
       </c>
       <c r="B31" t="n">
-        <v>89410</v>
+        <v>73693</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4074,21 +4074,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4098,10 +4098,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>436671.8522060242</v>
+        <v>436768.9613388443</v>
       </c>
       <c r="R31" t="n">
-        <v>7165002.851193915</v>
+        <v>7164566.185987116</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4174,10 +4174,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>72428350</v>
+        <v>72428385</v>
       </c>
       <c r="B32" t="n">
-        <v>95511</v>
+        <v>89410</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4186,25 +4186,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221944</v>
+        <v>5432</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4214,10 +4214,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>436643.0739533344</v>
+        <v>436671.8522060242</v>
       </c>
       <c r="R32" t="n">
-        <v>7164551.201149244</v>
+        <v>7165002.851193915</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4290,10 +4290,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>72428366</v>
+        <v>72428350</v>
       </c>
       <c r="B33" t="n">
-        <v>78596</v>
+        <v>95511</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4306,21 +4306,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6462</v>
+        <v>221944</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4330,10 +4330,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>436635.8469210393</v>
+        <v>436643.0739533344</v>
       </c>
       <c r="R33" t="n">
-        <v>7164555.217705115</v>
+        <v>7164551.201149244</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>72428323</v>
+        <v>72428366</v>
       </c>
       <c r="B34" t="n">
         <v>78596</v>
@@ -4446,10 +4446,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>436725.9521279522</v>
+        <v>436635.8469210393</v>
       </c>
       <c r="R34" t="n">
-        <v>7165225.890241673</v>
+        <v>7164555.217705115</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4492,11 +4492,6 @@
       <c r="AB34" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>På sten.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4527,10 +4522,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>72428333</v>
+        <v>72428323</v>
       </c>
       <c r="B35" t="n">
-        <v>77668</v>
+        <v>78596</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4539,25 +4534,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1249</v>
+        <v>6462</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4567,10 +4562,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>436609.1869342168</v>
+        <v>436725.9521279522</v>
       </c>
       <c r="R35" t="n">
-        <v>7164575.961783768</v>
+        <v>7165225.890241673</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4613,6 +4608,11 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>På sten.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4643,10 +4643,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>72428330</v>
+        <v>72428333</v>
       </c>
       <c r="B36" t="n">
-        <v>73698</v>
+        <v>77668</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4655,25 +4655,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1467</v>
+        <v>1249</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>436749.8044651655</v>
+        <v>436609.1869342168</v>
       </c>
       <c r="R36" t="n">
-        <v>7165215.086716959</v>
+        <v>7164575.961783768</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4759,10 +4759,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>72428357</v>
+        <v>72428330</v>
       </c>
       <c r="B37" t="n">
-        <v>78602</v>
+        <v>73698</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4771,25 +4771,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6463</v>
+        <v>1467</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4799,10 +4799,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>436720.0431215578</v>
+        <v>436749.8044651655</v>
       </c>
       <c r="R37" t="n">
-        <v>7165128.103196093</v>
+        <v>7165215.086716959</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4845,11 +4845,6 @@
       <c r="AB37" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Hackmärken</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4880,10 +4875,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>72428364</v>
+        <v>72428357</v>
       </c>
       <c r="B38" t="n">
-        <v>78596</v>
+        <v>78602</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4896,21 +4891,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6462</v>
+        <v>6463</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4920,10 +4915,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>437055.1424984471</v>
+        <v>436720.0431215578</v>
       </c>
       <c r="R38" t="n">
-        <v>7164637.978396592</v>
+        <v>7165128.103196093</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4966,6 +4961,11 @@
       <c r="AB38" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Hackmärken</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4996,10 +4996,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>72428390</v>
+        <v>72428364</v>
       </c>
       <c r="B39" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5008,25 +5008,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5036,10 +5036,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>436717.0823782412</v>
+        <v>437055.1424984471</v>
       </c>
       <c r="R39" t="n">
-        <v>7164553.093211187</v>
+        <v>7164637.978396592</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5112,10 +5112,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>72479443</v>
+        <v>72428390</v>
       </c>
       <c r="B40" t="n">
-        <v>73698</v>
+        <v>77506</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5128,36 +5128,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Portfjällsätern, Jmt</t>
+          <t>Portfjällbäcken NV, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>437279.1355524865</v>
+        <v>436717.0823782412</v>
       </c>
       <c r="R40" t="n">
-        <v>7164427.171911485</v>
+        <v>7164553.093211187</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5184,7 +5182,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2018-07-25</t>
+          <t>2018-07-26</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5194,7 +5192,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2018-07-25</t>
+          <t>2018-07-26</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5208,44 +5206,18 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>Högörtgranskog</t>
-        </is>
-      </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>naturskog</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>björkar</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Johan Råghall, Beatrice Svensson Lindius, Bo Karlsson, Ingela Källén, Jenny Schlaug</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">
@@ -5256,10 +5228,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>72479535</v>
+        <v>72479443</v>
       </c>
       <c r="B41" t="n">
-        <v>77486</v>
+        <v>73698</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5272,21 +5244,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>336</v>
+        <v>1467</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Solfjäderlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cheiromycina flabelliformis</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>B.Sutton</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5298,10 +5270,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>437215.85406107</v>
+        <v>437279.1355524865</v>
       </c>
       <c r="R41" t="n">
-        <v>7164424.184967923</v>
+        <v>7164427.171911485</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5368,17 +5340,17 @@
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5400,10 +5372,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>72479080</v>
+        <v>72479535</v>
       </c>
       <c r="B42" t="n">
-        <v>73685</v>
+        <v>77486</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5412,25 +5384,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>492</v>
+        <v>336</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Solfjäderlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Cheiromycina flabelliformis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>B.Sutton</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5442,10 +5414,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>437325.9381990359</v>
+        <v>437215.85406107</v>
       </c>
       <c r="R42" t="n">
-        <v>7164131.960768925</v>
+        <v>7164424.184967923</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5512,17 +5484,17 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>grov gammal björk # Betula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5544,10 +5516,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>72479306</v>
+        <v>72479080</v>
       </c>
       <c r="B43" t="n">
-        <v>77668</v>
+        <v>73685</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5560,33 +5532,25 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1249</v>
+        <v>492</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -5594,10 +5558,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>437217.0552937482</v>
+        <v>437325.9381990359</v>
       </c>
       <c r="R43" t="n">
-        <v>7164211.962938105</v>
+        <v>7164131.960768925</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5664,17 +5628,17 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>granhögstubbe # Picea abies</t>
+          <t>grov gammal björk # Betula</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5696,10 +5660,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>72479256</v>
+        <v>72479306</v>
       </c>
       <c r="B44" t="n">
-        <v>76862</v>
+        <v>77668</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5708,29 +5672,37 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6443</v>
+        <v>1249</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sotlav</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Acolium inquinans</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Sm.) A.Massal.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -5738,10 +5710,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>437306.9552308739</v>
+        <v>437217.0552937482</v>
       </c>
       <c r="R44" t="n">
-        <v>7164149.965284147</v>
+        <v>7164211.962938105</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5818,7 +5790,7 @@
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>grov gammal död gran # Picea abies</t>
+          <t>granhögstubbe # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -5840,10 +5812,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>72479049</v>
+        <v>72479256</v>
       </c>
       <c r="B45" t="n">
-        <v>73698</v>
+        <v>76862</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5852,25 +5824,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1467</v>
+        <v>6443</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Sotlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Acolium inquinans</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Sm.) A.Massal.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5882,10 +5854,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>437325.9381990359</v>
+        <v>437306.9552308739</v>
       </c>
       <c r="R45" t="n">
-        <v>7164131.960768925</v>
+        <v>7164149.965284147</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5952,17 +5924,17 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>högstubbe # Betula</t>
+          <t>grov gammal död gran # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -5984,10 +5956,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>72479374</v>
+        <v>72479049</v>
       </c>
       <c r="B46" t="n">
-        <v>77668</v>
+        <v>73698</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5996,37 +5968,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1249</v>
+        <v>1467</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6034,10 +5998,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>437245.9381139578</v>
+        <v>437325.9381990359</v>
       </c>
       <c r="R46" t="n">
-        <v>7164319.184271369</v>
+        <v>7164131.960768925</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6114,7 +6078,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>högstubbe # Betula</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6136,10 +6100,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>72479378</v>
+        <v>72479374</v>
       </c>
       <c r="B47" t="n">
-        <v>73698</v>
+        <v>77668</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6148,29 +6112,37 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1467</v>
+        <v>1249</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6280,10 +6252,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>72479497</v>
+        <v>72479378</v>
       </c>
       <c r="B48" t="n">
-        <v>78596</v>
+        <v>73698</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6292,25 +6264,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6462</v>
+        <v>1467</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6322,10 +6294,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>437215.85406107</v>
+        <v>437245.9381139578</v>
       </c>
       <c r="R48" t="n">
-        <v>7164424.184967923</v>
+        <v>7164319.184271369</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6392,17 +6364,17 @@
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6424,10 +6396,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>72487318</v>
+        <v>72479497</v>
       </c>
       <c r="B49" t="n">
-        <v>73507</v>
+        <v>78596</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6440,21 +6412,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6428</v>
+        <v>6462</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6466,10 +6438,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>437232.1725141201</v>
+        <v>437215.85406107</v>
       </c>
       <c r="R49" t="n">
-        <v>7164319.039362812</v>
+        <v>7164424.184967923</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6536,17 +6508,17 @@
       </c>
       <c r="AJ49" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>gammal gran # Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6568,10 +6540,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>72479659</v>
+        <v>72487318</v>
       </c>
       <c r="B50" t="n">
-        <v>77668</v>
+        <v>73507</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6580,25 +6552,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1249</v>
+        <v>6428</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6610,10 +6582,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>437057.897243168</v>
+        <v>437232.1725141201</v>
       </c>
       <c r="R50" t="n">
-        <v>7164667.127453566</v>
+        <v>7164319.039362812</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6670,12 +6642,12 @@
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>Gransumpskog</t>
+          <t>Högörtgranskog</t>
         </is>
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>källmyr</t>
+          <t>naturskog</t>
         </is>
       </c>
       <c r="AJ50" t="inlineStr">
@@ -6690,7 +6662,7 @@
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>grov gammal gran # Picea abies</t>
+          <t>gammal gran # Picea abies</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6712,7 +6684,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>72479364</v>
+        <v>72479659</v>
       </c>
       <c r="B51" t="n">
         <v>77668</v>
@@ -6754,10 +6726,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>437228.0495926127</v>
+        <v>437057.897243168</v>
       </c>
       <c r="R51" t="n">
-        <v>7164286.049195569</v>
+        <v>7164667.127453566</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6814,12 +6786,12 @@
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>Högörtgranskog</t>
+          <t>Gransumpskog</t>
         </is>
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>naturskog</t>
+          <t>källmyr</t>
         </is>
       </c>
       <c r="AJ51" t="inlineStr">
@@ -6834,7 +6806,7 @@
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov gammal gran # Picea abies</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6856,10 +6828,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>72479438</v>
+        <v>72479364</v>
       </c>
       <c r="B52" t="n">
-        <v>73685</v>
+        <v>77668</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6872,21 +6844,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>492</v>
+        <v>1249</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6898,10 +6870,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>437279.1355524865</v>
+        <v>437228.0495926127</v>
       </c>
       <c r="R52" t="n">
-        <v>7164427.171911485</v>
+        <v>7164286.049195569</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6968,17 +6940,17 @@
       </c>
       <c r="AJ52" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -7000,10 +6972,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>72479445</v>
+        <v>72479438</v>
       </c>
       <c r="B53" t="n">
-        <v>77506</v>
+        <v>73685</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7012,25 +6984,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>492</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -7112,17 +7084,17 @@
       </c>
       <c r="AJ53" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK53" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -7144,10 +7116,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>72479026</v>
+        <v>72479445</v>
       </c>
       <c r="B54" t="n">
-        <v>77668</v>
+        <v>77506</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7156,25 +7128,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1249</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -7186,10 +7158,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>437352.1063098361</v>
+        <v>437279.1355524865</v>
       </c>
       <c r="R54" t="n">
-        <v>7164066.124569201</v>
+        <v>7164427.171911485</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7266,7 +7238,7 @@
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>grova grenar # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7288,10 +7260,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>72480762</v>
+        <v>72479026</v>
       </c>
       <c r="B55" t="n">
-        <v>73507</v>
+        <v>77668</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7300,25 +7272,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6428</v>
+        <v>1249</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -7330,10 +7302,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>437336.9440067001</v>
+        <v>437352.1063098361</v>
       </c>
       <c r="R55" t="n">
-        <v>7164560.848191619</v>
+        <v>7164066.124569201</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7410,7 +7382,7 @@
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>murken stubbe # Picea abies</t>
+          <t>grova grenar # Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7432,10 +7404,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>72479509</v>
+        <v>72480762</v>
       </c>
       <c r="B56" t="n">
-        <v>78570</v>
+        <v>73507</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7444,25 +7416,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2081</v>
+        <v>6428</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7474,10 +7446,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>437187.0507160582</v>
+        <v>437336.9440067001</v>
       </c>
       <c r="R56" t="n">
-        <v>7164487.062742201</v>
+        <v>7164560.848191619</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7544,17 +7516,17 @@
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>murken stubbe # Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7576,10 +7548,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>72479769</v>
+        <v>72479509</v>
       </c>
       <c r="B57" t="n">
-        <v>73680</v>
+        <v>78570</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7588,25 +7560,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>306</v>
+        <v>2081</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7618,10 +7590,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>437082.0944381866</v>
+        <v>437187.0507160582</v>
       </c>
       <c r="R57" t="n">
-        <v>7164734.915535612</v>
+        <v>7164487.062742201</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7681,19 +7653,24 @@
           <t>Högörtgranskog</t>
         </is>
       </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>naturskog</t>
+        </is>
+      </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>grov gammal björk # Betula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7715,10 +7692,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>72479324</v>
+        <v>72479769</v>
       </c>
       <c r="B58" t="n">
-        <v>77506</v>
+        <v>73680</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7727,25 +7704,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>306</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7757,10 +7734,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>437217.0552937482</v>
+        <v>437082.0944381866</v>
       </c>
       <c r="R58" t="n">
-        <v>7164211.962938105</v>
+        <v>7164734.915535612</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7820,24 +7797,19 @@
           <t>Högörtgranskog</t>
         </is>
       </c>
-      <c r="AI58" t="inlineStr">
-        <is>
-          <t>naturskog</t>
-        </is>
-      </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>grenar på död gran # Picea abies</t>
+          <t>grov gammal björk # Betula</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7859,10 +7831,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>72479185</v>
+        <v>72479324</v>
       </c>
       <c r="B59" t="n">
-        <v>78570</v>
+        <v>77506</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7875,21 +7847,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7901,10 +7873,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>437325.9381990359</v>
+        <v>437217.0552937482</v>
       </c>
       <c r="R59" t="n">
-        <v>7164131.960768925</v>
+        <v>7164211.962938105</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7971,17 +7943,17 @@
       </c>
       <c r="AJ59" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
         <is>
-          <t>grov gammal björk # Betula</t>
+          <t>grenar på död gran # Picea abies</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -8003,10 +7975,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>72479252</v>
+        <v>72479185</v>
       </c>
       <c r="B60" t="n">
-        <v>76863</v>
+        <v>78570</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -8015,25 +7987,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>498</v>
+        <v>2081</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -8045,10 +8017,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>437306.9552308739</v>
+        <v>437325.9381990359</v>
       </c>
       <c r="R60" t="n">
-        <v>7164149.965284147</v>
+        <v>7164131.960768925</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8115,17 +8087,17 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>grov gammal död gran # Picea abies</t>
+          <t>grov gammal björk # Betula</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -8147,10 +8119,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>72479299</v>
+        <v>72479252</v>
       </c>
       <c r="B61" t="n">
-        <v>73685</v>
+        <v>76863</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -8163,21 +8135,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -8189,10 +8161,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>437217.0552937482</v>
+        <v>437306.9552308739</v>
       </c>
       <c r="R61" t="n">
-        <v>7164211.962938105</v>
+        <v>7164149.965284147</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8269,7 +8241,7 @@
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>granhögstubbe # Picea abies</t>
+          <t>grov gammal död gran # Picea abies</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
@@ -8291,10 +8263,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>72479589</v>
+        <v>72479299</v>
       </c>
       <c r="B62" t="n">
-        <v>76862</v>
+        <v>73685</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -8303,25 +8275,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6443</v>
+        <v>492</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sotlav</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Acolium inquinans</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Sm.) A.Massal.</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -8333,10 +8305,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>437032.9797922601</v>
+        <v>437217.0552937482</v>
       </c>
       <c r="R62" t="n">
-        <v>7164543.945593411</v>
+        <v>7164211.962938105</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8413,7 +8385,7 @@
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>grov gammal gran # Picea abies</t>
+          <t>granhögstubbe # Picea abies</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -8435,10 +8407,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>72479360</v>
+        <v>72479589</v>
       </c>
       <c r="B63" t="n">
-        <v>81236</v>
+        <v>76862</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8447,25 +8419,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1312</v>
+        <v>6443</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Sotlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Acolium inquinans</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Sm.) A.Massal.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -8477,10 +8449,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>437228.0495926127</v>
+        <v>437032.9797922601</v>
       </c>
       <c r="R63" t="n">
-        <v>7164286.049195569</v>
+        <v>7164543.945593411</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8557,7 +8529,7 @@
       </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>grov gammal gran # Picea abies</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -8579,10 +8551,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>72479564</v>
+        <v>72479360</v>
       </c>
       <c r="B64" t="n">
-        <v>73680</v>
+        <v>81236</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8591,25 +8563,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>306</v>
+        <v>1312</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8621,10 +8593,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>437145.1778767295</v>
+        <v>437228.0495926127</v>
       </c>
       <c r="R64" t="n">
-        <v>7164521.002919773</v>
+        <v>7164286.049195569</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8684,19 +8656,24 @@
           <t>Högörtgranskog</t>
         </is>
       </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>naturskog</t>
+        </is>
+      </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>björkhögstubbe # Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8718,10 +8695,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>72479336</v>
+        <v>72479564</v>
       </c>
       <c r="B65" t="n">
-        <v>89410</v>
+        <v>73680</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8730,25 +8707,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5432</v>
+        <v>306</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8760,10 +8737,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>437213.9605189522</v>
+        <v>437145.1778767295</v>
       </c>
       <c r="R65" t="n">
-        <v>7164291.065688466</v>
+        <v>7164521.002919773</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8823,24 +8800,19 @@
           <t>Högörtgranskog</t>
         </is>
       </c>
-      <c r="AI65" t="inlineStr">
-        <is>
-          <t>naturskog</t>
-        </is>
-      </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>gammal gran # Picea abies</t>
+          <t>björkhögstubbe # Betula</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -8862,10 +8834,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>72479491</v>
+        <v>72479336</v>
       </c>
       <c r="B66" t="n">
-        <v>78570</v>
+        <v>89410</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8878,21 +8850,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8904,10 +8876,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>437215.85406107</v>
+        <v>437213.9605189522</v>
       </c>
       <c r="R66" t="n">
-        <v>7164424.184967923</v>
+        <v>7164291.065688466</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8974,17 +8946,17 @@
       </c>
       <c r="AJ66" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>gammal gran # Picea abies</t>
         </is>
       </c>
       <c r="AT66" t="inlineStr"/>
@@ -9006,10 +8978,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>72479746</v>
+        <v>72479491</v>
       </c>
       <c r="B67" t="n">
-        <v>78596</v>
+        <v>78570</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -9018,25 +8990,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -9048,10 +9020,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>437082.0944381866</v>
+        <v>437215.85406107</v>
       </c>
       <c r="R67" t="n">
-        <v>7164734.915535612</v>
+        <v>7164424.184967923</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -9111,19 +9083,24 @@
           <t>Högörtgranskog</t>
         </is>
       </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>naturskog</t>
+        </is>
+      </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>grov gammal björk # Betula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -9145,10 +9122,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>72479072</v>
+        <v>72479746</v>
       </c>
       <c r="B68" t="n">
-        <v>76862</v>
+        <v>78596</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -9161,21 +9138,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6443</v>
+        <v>6462</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Sotlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Acolium inquinans</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Sm.) A.Massal.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -9187,10 +9164,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>437325.9381990359</v>
+        <v>437082.0944381866</v>
       </c>
       <c r="R68" t="n">
-        <v>7164131.960768925</v>
+        <v>7164734.915535612</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -9248,11 +9225,6 @@
       <c r="AH68" t="inlineStr">
         <is>
           <t>Högörtgranskog</t>
-        </is>
-      </c>
-      <c r="AI68" t="inlineStr">
-        <is>
-          <t>naturskog</t>
         </is>
       </c>
       <c r="AJ68" t="inlineStr">
@@ -9289,10 +9261,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>72479385</v>
+        <v>72479072</v>
       </c>
       <c r="B69" t="n">
-        <v>73686</v>
+        <v>76862</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -9301,25 +9273,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>308</v>
+        <v>6443</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Sotlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Acolium inquinans</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Sm.) A.Massal.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -9331,10 +9303,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>437252.8493684968</v>
+        <v>437325.9381990359</v>
       </c>
       <c r="R69" t="n">
-        <v>7164383.043452302</v>
+        <v>7164131.960768925</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -9411,7 +9383,7 @@
       </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>björkhögstubbe # Betula</t>
+          <t>grov gammal björk # Betula</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -9433,10 +9405,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>72487613</v>
+        <v>72479385</v>
       </c>
       <c r="B70" t="n">
-        <v>73560</v>
+        <v>73686</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -9445,25 +9417,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>229653</v>
+        <v>308</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Njurlavsknapp</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Plectocarpon nephromeum</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Norman) R.Sant.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -9475,10 +9447,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>437187.0507160582</v>
+        <v>437252.8493684968</v>
       </c>
       <c r="R70" t="n">
-        <v>7164487.062742201</v>
+        <v>7164383.043452302</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9538,19 +9510,24 @@
           <t>Högörtgranskog</t>
         </is>
       </c>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>naturskog</t>
+        </is>
+      </c>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>björkhögstubbe # Betula</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9572,10 +9549,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>72479572</v>
+        <v>72487613</v>
       </c>
       <c r="B71" t="n">
-        <v>77668</v>
+        <v>73560</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9584,25 +9561,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1249</v>
+        <v>229653</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Njurlavsknapp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Plectocarpon nephromeum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Norman) R.Sant.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -9614,10 +9591,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>437145.1778767295</v>
+        <v>437187.0507160582</v>
       </c>
       <c r="R71" t="n">
-        <v>7164521.002919773</v>
+        <v>7164487.062742201</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9677,9 +9654,19 @@
           <t>Högörtgranskog</t>
         </is>
       </c>
-      <c r="AI71" t="inlineStr">
-        <is>
-          <t>naturskog</t>
+      <c r="AJ71" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK71" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AO71" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr"/>
@@ -9701,10 +9688,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>72479502</v>
+        <v>72479572</v>
       </c>
       <c r="B72" t="n">
-        <v>73686</v>
+        <v>77668</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9713,25 +9700,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>308</v>
+        <v>1249</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9743,10 +9730,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>437215.85406107</v>
+        <v>437145.1778767295</v>
       </c>
       <c r="R72" t="n">
-        <v>7164424.184967923</v>
+        <v>7164521.002919773</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9809,21 +9796,6 @@
       <c r="AI72" t="inlineStr">
         <is>
           <t>naturskog</t>
-        </is>
-      </c>
-      <c r="AJ72" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK72" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO72" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>
@@ -9845,10 +9817,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72479513</v>
+        <v>72479502</v>
       </c>
       <c r="B73" t="n">
-        <v>78596</v>
+        <v>73686</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9857,25 +9829,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6462</v>
+        <v>308</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9887,10 +9859,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>437187.0507160582</v>
+        <v>437215.85406107</v>
       </c>
       <c r="R73" t="n">
-        <v>7164487.062742201</v>
+        <v>7164424.184967923</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9957,17 +9929,17 @@
       </c>
       <c r="AJ73" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr"/>
@@ -9989,10 +9961,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>72479538</v>
+        <v>72479513</v>
       </c>
       <c r="B74" t="n">
-        <v>77668</v>
+        <v>78596</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -10001,37 +9973,29 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1249</v>
+        <v>6462</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -10039,10 +10003,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>437177.0359089834</v>
+        <v>437187.0507160582</v>
       </c>
       <c r="R74" t="n">
-        <v>7164501.873853724</v>
+        <v>7164487.062742201</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -10087,11 +10051,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>två granar, 10 + 5</t>
-        </is>
-      </c>
       <c r="AD74" t="b">
         <v>0</v>
       </c>
@@ -10114,17 +10073,17 @@
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -10146,7 +10105,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>72480772</v>
+        <v>72479538</v>
       </c>
       <c r="B75" t="n">
         <v>77668</v>
@@ -10179,8 +10138,16 @@
           <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -10188,10 +10155,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>437361.1278800956</v>
+        <v>437177.0359089834</v>
       </c>
       <c r="R75" t="n">
-        <v>7164419.894688105</v>
+        <v>7164501.873853724</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -10236,6 +10203,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>två granar, 10 + 5</t>
+        </is>
+      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
@@ -10266,14 +10238,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL75" t="inlineStr">
-        <is>
-          <t>klen senvuxen gran i myrkant</t>
-        </is>
-      </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>Picea abies # klen senvuxen gran i myrkant</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -10295,7 +10262,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>72479333</v>
+        <v>72480772</v>
       </c>
       <c r="B76" t="n">
         <v>77668</v>
@@ -10328,16 +10295,8 @@
           <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -10345,10 +10304,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>437213.9605189522</v>
+        <v>437361.1278800956</v>
       </c>
       <c r="R76" t="n">
-        <v>7164291.065688466</v>
+        <v>7164419.894688105</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -10423,9 +10382,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL76" t="inlineStr">
+        <is>
+          <t>klen senvuxen gran i myrkant</t>
+        </is>
+      </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>grenar på gammal gran # Picea abies</t>
+          <t>Picea abies # klen senvuxen gran i myrkant</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -10447,10 +10411,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>72480743</v>
+        <v>72479333</v>
       </c>
       <c r="B77" t="n">
-        <v>73680</v>
+        <v>77668</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -10459,29 +10423,37 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>306</v>
+        <v>1249</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -10489,10 +10461,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>437305.1542772034</v>
+        <v>437213.9605189522</v>
       </c>
       <c r="R77" t="n">
-        <v>7164729.010604433</v>
+        <v>7164291.065688466</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -10559,17 +10531,17 @@
       </c>
       <c r="AJ77" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>blottad ved i gammal skada # Betula</t>
+          <t>grenar på gammal gran # Picea abies</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>
@@ -10591,10 +10563,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>72479679</v>
+        <v>72480743</v>
       </c>
       <c r="B78" t="n">
-        <v>77668</v>
+        <v>73680</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -10603,25 +10575,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1249</v>
+        <v>306</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -10633,10 +10605,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>437082.0944381866</v>
+        <v>437305.1542772034</v>
       </c>
       <c r="R78" t="n">
-        <v>7164734.915535612</v>
+        <v>7164729.010604433</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -10696,6 +10668,11 @@
           <t>Högörtgranskog</t>
         </is>
       </c>
+      <c r="AI78" t="inlineStr">
+        <is>
+          <t>naturskog</t>
+        </is>
+      </c>
       <c r="AJ78" t="inlineStr">
         <is>
           <t>björkar</t>
@@ -10708,7 +10685,7 @@
       </c>
       <c r="AO78" t="inlineStr">
         <is>
-          <t>grov gammal björk # Betula</t>
+          <t>blottad ved i gammal skada # Betula</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr"/>
@@ -10730,10 +10707,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>72479286</v>
+        <v>72479679</v>
       </c>
       <c r="B79" t="n">
-        <v>73698</v>
+        <v>77668</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -10742,25 +10719,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1467</v>
+        <v>1249</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -10772,10 +10749,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>437258.7912550624</v>
+        <v>437082.0944381866</v>
       </c>
       <c r="R79" t="n">
-        <v>7164171.150266962</v>
+        <v>7164734.915535612</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -10835,24 +10812,19 @@
           <t>Högörtgranskog</t>
         </is>
       </c>
-      <c r="AI79" t="inlineStr">
-        <is>
-          <t>naturskog</t>
-        </is>
-      </c>
       <c r="AJ79" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK79" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
         <is>
-          <t>gammal gran # Picea abies</t>
+          <t>grov gammal björk # Betula</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr"/>
@@ -10874,10 +10846,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>72479794</v>
+        <v>72479286</v>
       </c>
       <c r="B80" t="n">
-        <v>73562</v>
+        <v>73698</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -10886,25 +10858,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>229654</v>
+        <v>1467</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Skrovellavsknapp</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Plectocarpon scrobiculatae</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Diederich &amp; Etayo</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -10916,10 +10888,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>437291.1244100946</v>
+        <v>437258.7912550624</v>
       </c>
       <c r="R80" t="n">
-        <v>7164715.986250146</v>
+        <v>7164171.150266962</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -10979,19 +10951,24 @@
           <t>Högörtgranskog</t>
         </is>
       </c>
+      <c r="AI80" t="inlineStr">
+        <is>
+          <t>naturskog</t>
+        </is>
+      </c>
       <c r="AJ80" t="inlineStr">
         <is>
-          <t>skrovellav</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK80" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
         <is>
-          <t>grov gammal björk # Lobaria scrobiculata</t>
+          <t>gammal gran # Picea abies</t>
         </is>
       </c>
       <c r="AT80" t="inlineStr"/>
@@ -11013,10 +10990,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>72485802</v>
+        <v>72479794</v>
       </c>
       <c r="B81" t="n">
-        <v>73507</v>
+        <v>73562</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -11025,25 +11002,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6428</v>
+        <v>229654</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Skrovellavsknapp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Plectocarpon scrobiculatae</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>Diederich &amp; Etayo</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -11055,10 +11032,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>437145.1778767295</v>
+        <v>437291.1244100946</v>
       </c>
       <c r="R81" t="n">
-        <v>7164521.002919773</v>
+        <v>7164715.986250146</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -11118,24 +11095,19 @@
           <t>Högörtgranskog</t>
         </is>
       </c>
-      <c r="AI81" t="inlineStr">
-        <is>
-          <t>naturskog</t>
-        </is>
-      </c>
       <c r="AJ81" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>skrovellav</t>
         </is>
       </c>
       <c r="AK81" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
         <is>
-          <t>björkhögstubbe # Betula</t>
+          <t>grov gammal björk # Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr"/>
@@ -11157,10 +11129,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>72479578</v>
+        <v>72485802</v>
       </c>
       <c r="B82" t="n">
-        <v>77506</v>
+        <v>73507</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -11169,25 +11141,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -11247,11 +11219,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
-        </is>
-      </c>
       <c r="AD82" t="b">
         <v>0</v>
       </c>
@@ -11264,7 +11231,7 @@
       </c>
       <c r="AH82" t="inlineStr">
         <is>
-          <t>Gransumpskog</t>
+          <t>Högörtgranskog</t>
         </is>
       </c>
       <c r="AI82" t="inlineStr">
@@ -11274,17 +11241,17 @@
       </c>
       <c r="AJ82" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK82" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>björkhögstubbe # Betula</t>
         </is>
       </c>
       <c r="AT82" t="inlineStr"/>
@@ -11306,10 +11273,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>72479772</v>
+        <v>72479578</v>
       </c>
       <c r="B83" t="n">
-        <v>73678</v>
+        <v>77506</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -11318,25 +11285,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -11348,10 +11315,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>437082.0944381866</v>
+        <v>437145.1778767295</v>
       </c>
       <c r="R83" t="n">
-        <v>7164734.915535612</v>
+        <v>7164521.002919773</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -11396,6 +11363,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
+      </c>
       <c r="AD83" t="b">
         <v>0</v>
       </c>
@@ -11408,22 +11380,27 @@
       </c>
       <c r="AH83" t="inlineStr">
         <is>
-          <t>Högörtgranskog</t>
+          <t>Gransumpskog</t>
+        </is>
+      </c>
+      <c r="AI83" t="inlineStr">
+        <is>
+          <t>naturskog</t>
         </is>
       </c>
       <c r="AJ83" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK83" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
         <is>
-          <t>grov gammal björk # Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT83" t="inlineStr"/>
@@ -11445,10 +11422,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>72479802</v>
+        <v>72479772</v>
       </c>
       <c r="B84" t="n">
-        <v>78437</v>
+        <v>73678</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -11457,25 +11434,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2080</v>
+        <v>6439</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Skorpgelélav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Rostania occultata</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Bagl.) Otálora, P.M.Jørg. &amp; Wedin</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -11487,10 +11464,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>437291.1244100946</v>
+        <v>437082.0944381866</v>
       </c>
       <c r="R84" t="n">
-        <v>7164715.986250146</v>
+        <v>7164734.915535612</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -11552,17 +11529,17 @@
       </c>
       <c r="AJ84" t="inlineStr">
         <is>
-          <t>skrovellav</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK84" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
         <is>
-          <t>grov gammal björk # Lobaria scrobiculata</t>
+          <t>grov gammal björk # Betula</t>
         </is>
       </c>
       <c r="AT84" t="inlineStr"/>
@@ -11584,10 +11561,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>72479037</v>
+        <v>72479802</v>
       </c>
       <c r="B85" t="n">
-        <v>73698</v>
+        <v>78437</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -11600,21 +11577,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1467</v>
+        <v>2080</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Skorpgelélav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Rostania occultata</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Bagl.) Otálora, P.M.Jørg. &amp; Wedin</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -11626,10 +11603,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>437338.9201485381</v>
+        <v>437291.1244100946</v>
       </c>
       <c r="R85" t="n">
-        <v>7164114.93930321</v>
+        <v>7164715.986250146</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -11689,24 +11666,19 @@
           <t>Högörtgranskog</t>
         </is>
       </c>
-      <c r="AI85" t="inlineStr">
-        <is>
-          <t>naturskog</t>
-        </is>
-      </c>
       <c r="AJ85" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>skrovellav</t>
         </is>
       </c>
       <c r="AK85" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
         <is>
-          <t>högstubbe # Betula</t>
+          <t>grov gammal björk # Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="AT85" t="inlineStr"/>
@@ -11728,10 +11700,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>72565281</v>
+        <v>72479037</v>
       </c>
       <c r="B86" t="n">
-        <v>77506</v>
+        <v>73698</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -11744,37 +11716,39 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Portfjällbäcken norr, Jmt</t>
+          <t>Portfjällsätern, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>437061.8841035772</v>
+        <v>437338.9201485381</v>
       </c>
       <c r="R86" t="n">
-        <v>7164652.012204628</v>
+        <v>7164114.93930321</v>
       </c>
       <c r="S86" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -11822,18 +11796,44 @@
       <c r="AE86" t="b">
         <v>0</v>
       </c>
+      <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="b">
         <v>0</v>
+      </c>
+      <c r="AH86" t="inlineStr">
+        <is>
+          <t>Högörtgranskog</t>
+        </is>
+      </c>
+      <c r="AI86" t="inlineStr">
+        <is>
+          <t>naturskog</t>
+        </is>
+      </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>björkar</t>
+        </is>
+      </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AO86" t="inlineStr">
+        <is>
+          <t>högstubbe # Betula</t>
+        </is>
       </c>
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Jon Andersson, Helena Björnström</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr">
@@ -11844,10 +11844,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>72565372</v>
+        <v>72565281</v>
       </c>
       <c r="B87" t="n">
-        <v>89406</v>
+        <v>77506</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -11860,21 +11860,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -11884,10 +11884,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>437253.0801531991</v>
+        <v>437061.8841035772</v>
       </c>
       <c r="R87" t="n">
-        <v>7164394.206689032</v>
+        <v>7164652.012204628</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -11960,10 +11960,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>72565327</v>
+        <v>72565372</v>
       </c>
       <c r="B88" t="n">
-        <v>81236</v>
+        <v>89406</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -11976,21 +11976,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1312</v>
+        <v>1204</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -12000,10 +12000,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>437327.0417920123</v>
+        <v>437253.0801531991</v>
       </c>
       <c r="R88" t="n">
-        <v>7164122.916905226</v>
+        <v>7164394.206689032</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -12054,7 +12054,6 @@
       <c r="AE88" t="b">
         <v>0</v>
       </c>
-      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
@@ -12077,10 +12076,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>72565274</v>
+        <v>72565327</v>
       </c>
       <c r="B89" t="n">
-        <v>96660</v>
+        <v>81236</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -12089,25 +12088,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>219880</v>
+        <v>1312</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -12117,10 +12116,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>437290.1703489687</v>
+        <v>437327.0417920123</v>
       </c>
       <c r="R89" t="n">
-        <v>7164649.004420775</v>
+        <v>7164122.916905226</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -12171,6 +12170,7 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
+      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -12193,10 +12193,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>72565380</v>
+        <v>72565274</v>
       </c>
       <c r="B90" t="n">
-        <v>77506</v>
+        <v>96660</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -12205,25 +12205,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>219880</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -12233,10 +12233,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>437285.0347490401</v>
+        <v>437290.1703489687</v>
       </c>
       <c r="R90" t="n">
-        <v>7164213.134994121</v>
+        <v>7164649.004420775</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -12309,10 +12309,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>72565360</v>
+        <v>72565380</v>
       </c>
       <c r="B91" t="n">
-        <v>73698</v>
+        <v>77506</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -12325,21 +12325,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -12349,10 +12349,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>437161.1605069488</v>
+        <v>437285.0347490401</v>
       </c>
       <c r="R91" t="n">
-        <v>7164482.873897873</v>
+        <v>7164213.134994121</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -12425,10 +12425,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>72565378</v>
+        <v>72565360</v>
       </c>
       <c r="B92" t="n">
-        <v>77506</v>
+        <v>73698</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -12441,21 +12441,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -12465,10 +12465,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>437224.9217106386</v>
+        <v>437161.1605069488</v>
       </c>
       <c r="R92" t="n">
-        <v>7164197.195032317</v>
+        <v>7164482.873897873</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -12541,10 +12541,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>72565295</v>
+        <v>72565378</v>
       </c>
       <c r="B93" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -12557,21 +12557,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -12581,10 +12581,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>437186.1343019391</v>
+        <v>437224.9217106386</v>
       </c>
       <c r="R93" t="n">
-        <v>7164505.121718388</v>
+        <v>7164197.195032317</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -12657,10 +12657,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>72565344</v>
+        <v>72565295</v>
       </c>
       <c r="B94" t="n">
-        <v>78570</v>
+        <v>81236</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -12673,21 +12673,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2081</v>
+        <v>1312</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -12697,10 +12697,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>437055.0801670154</v>
+        <v>437186.1343019391</v>
       </c>
       <c r="R94" t="n">
-        <v>7164634.973153707</v>
+        <v>7164505.121718388</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -12753,21 +12753,6 @@
       </c>
       <c r="AG94" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ94" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK94" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO94" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
@@ -12788,10 +12773,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>72565350</v>
+        <v>72565344</v>
       </c>
       <c r="B95" t="n">
-        <v>76862</v>
+        <v>78570</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -12800,25 +12785,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6443</v>
+        <v>2081</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Sotlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Acolium inquinans</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Sm.) A.Massal.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -12828,10 +12813,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>437310.868864016</v>
+        <v>437055.0801670154</v>
       </c>
       <c r="R95" t="n">
-        <v>7164152.032314575</v>
+        <v>7164634.973153707</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -12884,6 +12869,21 @@
       </c>
       <c r="AG95" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO95" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
@@ -12904,10 +12904,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>72565375</v>
+        <v>72565350</v>
       </c>
       <c r="B96" t="n">
-        <v>89410</v>
+        <v>76862</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -12916,25 +12916,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>5432</v>
+        <v>6443</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Sotlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Acolium inquinans</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Sm.) A.Massal.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -12944,10 +12944,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>437286.9761848025</v>
+        <v>437310.868864016</v>
       </c>
       <c r="R96" t="n">
-        <v>7164223.83394509</v>
+        <v>7164152.032314575</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -13020,7 +13020,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>72565376</v>
+        <v>72565375</v>
       </c>
       <c r="B97" t="n">
         <v>89410</v>
@@ -13060,10 +13060,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>437303.8262744632</v>
+        <v>437286.9761848025</v>
       </c>
       <c r="R97" t="n">
-        <v>7164165.064896578</v>
+        <v>7164223.83394509</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -13136,10 +13136,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>72565307</v>
+        <v>72565376</v>
       </c>
       <c r="B98" t="n">
-        <v>78570</v>
+        <v>89410</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -13152,21 +13152,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -13176,10 +13176,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>437284.9232363215</v>
+        <v>437303.8262744632</v>
       </c>
       <c r="R98" t="n">
-        <v>7164415.88443051</v>
+        <v>7164165.064896578</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -13232,21 +13232,6 @@
       </c>
       <c r="AG98" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ98" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK98" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO98" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
@@ -13267,10 +13252,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>72565289</v>
+        <v>72565307</v>
       </c>
       <c r="B99" t="n">
-        <v>73698</v>
+        <v>78570</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -13283,21 +13268,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1467</v>
+        <v>2081</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -13307,10 +13292,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>437086.858098663</v>
+        <v>437284.9232363215</v>
       </c>
       <c r="R99" t="n">
-        <v>7164529.083626198</v>
+        <v>7164415.88443051</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -13363,6 +13348,21 @@
       </c>
       <c r="AG99" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ99" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK99" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO99" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
@@ -13383,7 +13383,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>72565328</v>
+        <v>72565289</v>
       </c>
       <c r="B100" t="n">
         <v>73698</v>
@@ -13423,10 +13423,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>437335.0330818727</v>
+        <v>437086.858098663</v>
       </c>
       <c r="R100" t="n">
-        <v>7164114.160392805</v>
+        <v>7164529.083626198</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -13499,10 +13499,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>72565301</v>
+        <v>72565328</v>
       </c>
       <c r="B101" t="n">
-        <v>78603</v>
+        <v>73698</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -13511,25 +13511,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6464</v>
+        <v>1467</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -13539,10 +13539,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>437205.9740470244</v>
+        <v>437335.0330818727</v>
       </c>
       <c r="R101" t="n">
-        <v>7164487.100685861</v>
+        <v>7164114.160392805</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -13595,21 +13595,6 @@
       </c>
       <c r="AG101" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ101" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK101" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO101" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
@@ -13630,10 +13615,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>72565383</v>
+        <v>72565301</v>
       </c>
       <c r="B102" t="n">
-        <v>56286</v>
+        <v>78603</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -13642,54 +13627,38 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>100001</v>
+        <v>6464</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Duvhök</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Accipiter gentilis</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr"/>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
           <t>Portfjällbäcken norr, Jmt</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>437209.109012859</v>
+        <v>437205.9740470244</v>
       </c>
       <c r="R102" t="n">
-        <v>7164222.866388917</v>
+        <v>7164487.100685861</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -13742,6 +13711,21 @@
       </c>
       <c r="AG102" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ102" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK102" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO102" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
@@ -13762,10 +13746,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>72565272</v>
+        <v>72565383</v>
       </c>
       <c r="B103" t="n">
-        <v>96354</v>
+        <v>56286</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -13774,38 +13758,54 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>221952</v>
+        <v>100001</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Duvhök</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Accipiter gentilis</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>stationär</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
           <t>Portfjällbäcken norr, Jmt</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>437368.994423845</v>
+        <v>437209.109012859</v>
       </c>
       <c r="R103" t="n">
-        <v>7164405.128168269</v>
+        <v>7164222.866388917</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -13878,10 +13878,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>72565373</v>
+        <v>72565272</v>
       </c>
       <c r="B104" t="n">
-        <v>89410</v>
+        <v>96354</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -13890,25 +13890,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>437367.1633408847</v>
+        <v>437368.994423845</v>
       </c>
       <c r="R104" t="n">
-        <v>7164503.95756077</v>
+        <v>7164405.128168269</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
